--- a/medicine/Mort/Cimetière_de_Woodlawn/Cimetière_de_Woodlawn.xlsx
+++ b/medicine/Mort/Cimetière_de_Woodlawn/Cimetière_de_Woodlawn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Woodlawn</t>
+          <t>Cimetière_de_Woodlawn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Localisé dans l'arrondissement du Bronx, le Woodlawn Cemetery and Crematory est l'un des plus grands cimetières de la ville de New York. Il fut ouvert en 1863[1] au sud du comté de Westchester, dans une zone rurale qui sera annexée à la ville de New York en 1874.
-Le cimetière, où reposent plus de 300 000 personnes, occupe une surface de 160 hectares[1] (soit la moitié de la taille de Central Park). Il est devenu un lieu très fréquenté par les touristes grâce aux nombreux personnages célèbres qui y sont enterrés, du monde des affaires ou de l'industrie, de la politique, des arts et du spectacle entre autres. Beaucoup de sépultures présentent un intérêt architectural, parmi lesquelles plus de 1300 mausolées privés, construits par des architectes de renom (McKim, Mead and White, John Russell Pope, James Gamble Rogers (en), Cass Gilbert, Carrère and Hastings (en), Edwin Lutyens, Beatrix Farrand, et John LaFarge).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Localisé dans l'arrondissement du Bronx, le Woodlawn Cemetery and Crematory est l'un des plus grands cimetières de la ville de New York. Il fut ouvert en 1863 au sud du comté de Westchester, dans une zone rurale qui sera annexée à la ville de New York en 1874.
+Le cimetière, où reposent plus de 300 000 personnes, occupe une surface de 160 hectares (soit la moitié de la taille de Central Park). Il est devenu un lieu très fréquenté par les touristes grâce aux nombreux personnages célèbres qui y sont enterrés, du monde des affaires ou de l'industrie, de la politique, des arts et du spectacle entre autres. Beaucoup de sépultures présentent un intérêt architectural, parmi lesquelles plus de 1300 mausolées privés, construits par des architectes de renom (McKim, Mead and White, John Russell Pope, James Gamble Rogers (en), Cass Gilbert, Carrère and Hastings (en), Edwin Lutyens, Beatrix Farrand, et John LaFarge).
 On peut y trouver un mémorial aux victimes de la catastrophe du Titanic de 1912, le Annie Bliss Titanic Victims Memorial.
-En 2011 le cimetière de Woodlawn est devenu National Historic Landmark[2].
+En 2011 le cimetière de Woodlawn est devenu National Historic Landmark.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Woodlawn</t>
+          <t>Cimetière_de_Woodlawn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anthony J. Allaire
 Vivian Beaumont Allen
 Vincent Alo
@@ -525,7 +543,43 @@
 Hugh D. Auchincloss
 James C. Auchincloss
 Ambrosio Jose Gonzales
-B
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Benjamin Babbitt
 Jules Bache
 Diana Barrymore
@@ -552,7 +606,43 @@
 Richard Busteed
 Benjamin Franklin Butler
 Charles Butler
-C
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Harry Carey
 Vernon et Irene Castle
 Carrie Chapman Catt
@@ -572,7 +662,43 @@
 Celia Cruz
 Countee Cullen
 Frederick Kingsbury Curtis
-D
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Leopold Damrosch
 Ernie Davis
 Miles Davis
@@ -587,11 +713,81 @@
 Paul du Chaillu
 Finley Peter Dunne
 William C. Durant
-E
-Gertrude Ederle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gertrude Ederle
 Gus Edwards
-Duke Ellington
-F
+Duke Ellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 David Farragut
 Bud Fisher
 Clara Fisher
@@ -603,7 +799,43 @@
 Frankie Frisch
 Antoinette Perry Frueauff
 Frank Leslie
-G
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tommy Gagliano
 Lindley Miller Garrison
 Francis Patrick Garvan
@@ -618,7 +850,43 @@
 George Bird Grinnell
 Lawrence Grossmith
 Simon Guggenheim
-H
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Oscar Hammerstein, Sr.
 Lionel Hampton
 W.C. Handy
@@ -641,22 +909,125 @@
 Collis P. Huntington
 Barbara Hutton
 Henry Baldwin Hyde
-J
-Milt Jackson
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Milt Jackson
 Illinois Jacquet
 Fanny Janauschek
-Augustus D. Juilliard
-K
-James R. Keene
+Augustus D. Juilliard</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>James R. Keene
 Herman Knapp
 Pedro Knight
 Augustus Kountze
 Maria Kraus-Boelté
 Fritz Kreisler
 Samuel Henry Kress
-Walt Kuhn
-L
-Fiorello La Guardia
+Walt Kuhn</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fiorello La Guardia
 Daniel S. Lamont
 Canada Lee
 Henry Lehman
@@ -664,8 +1035,43 @@
 Harold Lockwood
 Frank Belknap Long
 Mansfield Lovell
-George Platt Lynes
-M
+George Platt Lynes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rowland Macy
 Martha Mansfield
 Frankie Manning
@@ -690,20 +1096,123 @@
 John Bassett Moore
 Paul Morton
 Robert Moses
-N
-Thomas Nast
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Thomas Nast
 Harold Nicholas
 Ruth Rowland Nichols
 Hideyo Noguchi
-James W. Nye
-O
-Chauncey Olcott
+James W. Nye</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chauncey Olcott
 Blanche Oelrichs
 Hermann Oelrichs
 William Butler Ogden
-Joe "King" Oliver
-P
-Augustus G. Paine, Jr.
+Joe "King" Oliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Augustus G. Paine, Jr.
 Felix Pappalardi
 James Cash Penney
 George B. Post
@@ -711,8 +1220,43 @@
 Samuel I. Prime
 Tito Puente
 Joseph Pulitzer
-Mihajlo Pupin
-R
+Mihajlo Pupin</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Charles Ranhofer
 Theodor Reik
 Grantland Rice
@@ -722,7 +1266,43 @@
 Andrew J. Rogers
 Delmar "Barney" Roos
 Damon Runyon
-S
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Julio Mario Santo Domingo
 Frank Scalice
 Alexander De Seversky
@@ -745,19 +1325,157 @@
 Edmund Clarence Stedman
 James Stillman
 Swante M. Swenson
-T
-Olive Thomas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Olive Thomas
 Lloyd Tilghman
 Dan Topping
 Jokichi Takamine
-Clarice Taylor
-U
-Vladimir Ussachevsky
-Samuel Untermyer
-V
-Robert Anderson Van Wyck
-Virginia Fair Vanderbilt
-W
+Clarice Taylor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Vladimir Ussachevsky
+Samuel Untermyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Robert Anderson Van Wyck
+Virginia Fair Vanderbilt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Woodlawn</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Madam C. J. Walker
 James Watson Webb
 William H. Webb
